--- a/Multiple Regression Models By Jolly Madamedon.xlsx
+++ b/Multiple Regression Models By Jolly Madamedon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mojm4\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368334BA-6995-4D8A-A53C-EFA5DAB4FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8835BB0B-9596-4060-AD8C-6E73C2D517EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{971E0754-AFAB-4083-9D01-4BDB6DDB55BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{971E0754-AFAB-4083-9D01-4BDB6DDB55BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Series Analysis" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5859,7 +5859,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1800" b="0"/>
+                  <a:rPr lang="en-GB" sz="1800" b="1"/>
                   <a:t>Tables Produced</a:t>
                 </a:r>
               </a:p>
@@ -6441,7 +6441,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1800"/>
+                  <a:rPr lang="en-GB" sz="1800" b="1"/>
                   <a:t>Fridges Produced</a:t>
                 </a:r>
               </a:p>
@@ -6691,6 +6691,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Scatter Plot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" baseline="0"/>
+              <a:t> Of Costs To Produce Chairs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6699,26 +6729,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7041,7 +7051,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1800" b="0"/>
+                  <a:rPr lang="en-GB" sz="1800" b="1"/>
                   <a:t>Chairs Produced</a:t>
                 </a:r>
               </a:p>
@@ -7310,7 +7320,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
               <a:t>Scatter Plot Of Costs To Doors Tables</a:t>
             </a:r>
           </a:p>
@@ -7574,7 +7584,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1600" b="1"/>
                   <a:t>Doors Produced</a:t>
                 </a:r>
               </a:p>
@@ -14516,7 +14526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33034F8-1294-4387-83C2-6433F240E3CD}">
   <dimension ref="B1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="F4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
@@ -15462,8 +15472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D641D4-7666-486F-ACF2-3CF72C84DECF}">
   <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A6" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17012,8 +17022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B98ED80-7023-4977-B60B-730CDCB81283}">
   <dimension ref="B1:K73"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17504,7 +17514,7 @@
         <v>2.0898087914023851</v>
       </c>
       <c r="F37" s="71">
-        <v>6.3149317584113754E-2</v>
+        <v>6.3149317584113795E-2</v>
       </c>
       <c r="G37" s="20">
         <v>-39.325076817409354</v>
